--- a/training_result.xlsx
+++ b/training_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DemoAuguste/Desktop/SA_course/Machine Learning/GroupProject/ProjectGit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DemoAuguste/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE256D47-7D9A-3042-A56F-23FBC59342FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2B72E5-E3A7-654B-98B7-F5E1265FFDFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="460" windowWidth="24940" windowHeight="14540" xr2:uid="{A32437E0-CD7B-1C4D-8CCB-50CFF417D26F}"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="24940" windowHeight="14540" xr2:uid="{A32437E0-CD7B-1C4D-8CCB-50CFF417D26F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="28">
   <si>
     <t>knn_classifier</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,12 +410,50 @@
     <t>暂缺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>PCA_n_components=450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCA_n_components=300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCA_n_components=150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂缺</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂缺</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -465,6 +503,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -506,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -516,6 +561,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,15 +575,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,313 +890,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF75CB0-E30C-6944-99FA-2A47CE2D4F77}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="28.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="27.83203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="25" style="6" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="22.1640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="26" style="6" customWidth="1"/>
-    <col min="14" max="14" width="27" style="6" customWidth="1"/>
-    <col min="15" max="15" width="22.6640625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="20.1640625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="21" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="44" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="22.1640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="26" style="3" customWidth="1"/>
+    <col min="14" max="14" width="27" style="3" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20.1640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="21" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>0.94350000000000001</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>0.91649999999999998</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>0.90949999999999998</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>0.94350000000000001</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>0.91649999999999998</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>0.94399999999999995</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>0.90949999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>0.90749999999999997</v>
       </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
         <v>0.89300000000000002</v>
       </c>
-      <c r="H4" s="6">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
         <v>0.89149999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
         <v>0.76900000000000002</v>
       </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>0.74350000000000005</v>
       </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.77500000000000002</v>
       </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
         <v>0.75249999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>0.98199999999999998</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>0.9345</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>0.97950000000000004</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>0.92649999999999999</v>
       </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
         <v>0.1</v>
       </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>0.99450000000000005</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>0.86850000000000005</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>0.99450000000000005</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>0.86650000000000005</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>0.99250000000000005</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <v>0.87549999999999994</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <v>0.995</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
         <v>0.87150000000000005</v>
       </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
         <v>0.86399999999999999</v>
       </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
         <v>0.87150000000000005</v>
       </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
         <v>0.86399999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1162,62 +1204,62 @@
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="1">
@@ -1232,10 +1274,10 @@
       <c r="E15" s="1">
         <v>0.90949999999999998</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3">
         <v>0.94499999999999995</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="3">
         <v>0.91700000000000004</v>
       </c>
       <c r="H15" s="1">
@@ -1250,7 +1292,7 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="1">
@@ -1259,16 +1301,16 @@
       <c r="C16" s="1">
         <v>0.88500000000000001</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="3">
         <v>0.98899999999999999</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3">
         <v>0.87549999999999994</v>
       </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
         <v>0.83450000000000002</v>
       </c>
       <c r="H16" s="1">
@@ -1283,7 +1325,7 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="1">
@@ -1292,16 +1334,16 @@
       <c r="C17" s="1">
         <v>0.72250000000000003</v>
       </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
         <v>0.68100000000000005</v>
       </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
         <v>0.72050000000000003</v>
       </c>
       <c r="H17" s="1">
@@ -1315,7 +1357,7 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="1">
@@ -1324,16 +1366,16 @@
       <c r="C18" s="1">
         <v>0.9335</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="3">
         <v>0.97950000000000004</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="3">
         <v>0.92749999999999999</v>
       </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
         <v>0.1</v>
       </c>
       <c r="H18" s="1">
@@ -1346,7 +1388,7 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1">
@@ -1355,16 +1397,16 @@
       <c r="C19" s="1">
         <v>0.84350000000000003</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="3">
         <v>0.999</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <v>0.84650000000000003</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3">
         <v>0.998</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="3">
         <v>0.84599999999999997</v>
       </c>
       <c r="H19" s="1">
@@ -1379,7 +1421,7 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="1">
@@ -1388,16 +1430,16 @@
       <c r="C20" s="1">
         <v>0.495</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="3">
         <v>0.44850000000000001</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="3">
         <v>0.40849999999999997</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="3">
         <v>0.51300000000000001</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="3">
         <v>0.495</v>
       </c>
       <c r="H20" s="1">
@@ -1412,7 +1454,7 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="1">
@@ -1445,7 +1487,7 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="1">
@@ -1488,7 +1530,7 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1496,54 +1538,54 @@
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="7"/>
+      <c r="F25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4" t="s">
+      <c r="G25" s="5"/>
+      <c r="H25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="1">
@@ -1570,9 +1612,11 @@
       <c r="I27" s="1">
         <v>0.90949999999999998</v>
       </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="1">
@@ -1599,9 +1643,11 @@
       <c r="I28" s="1">
         <v>0.86750000000000005</v>
       </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="1">
@@ -1626,17 +1672,19 @@
         <v>1</v>
       </c>
       <c r="I29" s="1">
-        <v>0.64</v>
-      </c>
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="6">
-        <v>1</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
         <v>0.1</v>
       </c>
       <c r="D30" s="1">
@@ -1657,9 +1705,11 @@
       <c r="I30" s="1">
         <v>0.92749999999999999</v>
       </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="1">
@@ -1681,14 +1731,16 @@
         <v>0.59699999999999998</v>
       </c>
       <c r="H31" s="1">
-        <v>0.99550000000000005</v>
+        <v>0.996</v>
       </c>
       <c r="I31" s="1">
-        <v>0.48799999999999999</v>
-      </c>
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="1">
@@ -1715,38 +1767,42 @@
       <c r="I32" s="1">
         <v>0.3745</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="6" t="s">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="6" t="s">
+      <c r="B33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="1">
@@ -1771,11 +1827,874 @@
         <v>1</v>
       </c>
       <c r="I34" s="1">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.90949999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.75549999999999995</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.98450000000000004</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.86750000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.65949999999999998</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.9335</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.92749999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.997</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.5595</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.5635</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.53149999999999997</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.309</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.3695</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.3745</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.309</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.3695</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.626</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.46650000000000003</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
         <v>0.90349999999999997</v>
       </c>
     </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.91849999999999998</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.8115</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.88049999999999995</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.65249999999999997</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.62549999999999994</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.61550000000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.309</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.309</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.373</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.44550000000000001</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.52549999999999997</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.91849999999999998</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.91049999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.96050000000000002</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.96450000000000002</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.6835</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.67649999999999999</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.6915</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0.92849999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.71750000000000003</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.70550000000000002</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.71650000000000003</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.997</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0.6915</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.309</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.44550000000000001</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.4385</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.309</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.3805</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.64549999999999996</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0.91249999999999998</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="24">
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:G25"/>
@@ -1788,6 +2707,18 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
